--- a/other_resources/facultati.xlsx
+++ b/other_resources/facultati.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ioana\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\University\Master\Anul 1 Sem 2\TWAAOS\local\cosmin\nou\Generare_Adeverinte_USV\other_resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE3EDED6-6A91-40CD-904D-857740798133}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B12935C-0DAA-4B35-A567-8BF10FAB9F22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="4935" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test2" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="60">
   <si>
     <t>full_name</t>
   </si>
@@ -34,9 +34,6 @@
     <t>dean_name</t>
   </si>
   <si>
-    <t>chief_secretary_name</t>
-  </si>
-  <si>
     <t>2023-2024</t>
   </si>
   <si>
@@ -49,18 +46,12 @@
     <t>Camelia Ignătescu</t>
   </si>
   <si>
-    <t>Andra Drelciuc</t>
-  </si>
-  <si>
     <t>Facultatea de Economie, Administrație și Afaceri</t>
   </si>
   <si>
     <t>FEAA</t>
   </si>
   <si>
-    <t>Luiza Pricop</t>
-  </si>
-  <si>
     <t>Carmen Nastase</t>
   </si>
   <si>
@@ -73,18 +64,12 @@
     <t>Petru Ghervan</t>
   </si>
   <si>
-    <t>Irina Carmen Gradinaru</t>
-  </si>
-  <si>
     <t>FIA</t>
   </si>
   <si>
     <t>Mircea Oroian</t>
   </si>
   <si>
-    <t>Elena Popescu</t>
-  </si>
-  <si>
     <t>Facultatea de Inginerie Alimentară</t>
   </si>
   <si>
@@ -97,9 +82,6 @@
     <t>Laurențiu-Dan Milici</t>
   </si>
   <si>
-    <t>Elena Curelaru</t>
-  </si>
-  <si>
     <t>Facultatea de Inginerie Mecanică, Autovehicule și Robotică</t>
   </si>
   <si>
@@ -109,9 +91,6 @@
     <t>Ilie Musca</t>
   </si>
   <si>
-    <t>Mariana Ene</t>
-  </si>
-  <si>
     <t>Facultatea de Istorie și Geografie</t>
   </si>
   <si>
@@ -121,9 +100,6 @@
     <t>Florin Pintescu</t>
   </si>
   <si>
-    <t>Cristina Pîrgaru</t>
-  </si>
-  <si>
     <t>Facultatea de Litere și Științe ale Comunicării</t>
   </si>
   <si>
@@ -133,9 +109,6 @@
     <t>Luminița-Elena Turcu</t>
   </si>
   <si>
-    <t>Mihaela Ștefan</t>
-  </si>
-  <si>
     <t>Facultatea de Medicină și Științe Biologice</t>
   </si>
   <si>
@@ -151,18 +124,9 @@
     <t>Aurora-Adina Colomeischi</t>
   </si>
   <si>
-    <t>Gabriela-Mihaela Blumenfeld</t>
-  </si>
-  <si>
     <t>Ciprian Palaghianu</t>
   </si>
   <si>
-    <t>Luminița Oprea</t>
-  </si>
-  <si>
-    <t>Elena Vultur</t>
-  </si>
-  <si>
     <t>Mihai Covașă</t>
   </si>
   <si>
@@ -170,12 +134,78 @@
   </si>
   <si>
     <t>SILVIC</t>
+  </si>
+  <si>
+    <t>chief_secretary_first_name</t>
+  </si>
+  <si>
+    <t>chief_secretary_last_name</t>
+  </si>
+  <si>
+    <t>Andra</t>
+  </si>
+  <si>
+    <t>Drelciuc</t>
+  </si>
+  <si>
+    <t>Luiza</t>
+  </si>
+  <si>
+    <t>Pricop</t>
+  </si>
+  <si>
+    <t>Irina Carmen</t>
+  </si>
+  <si>
+    <t>Gradinaru</t>
+  </si>
+  <si>
+    <t>Elena</t>
+  </si>
+  <si>
+    <t>Popescu</t>
+  </si>
+  <si>
+    <t>Curelaru</t>
+  </si>
+  <si>
+    <t>Mariana</t>
+  </si>
+  <si>
+    <t>Ene</t>
+  </si>
+  <si>
+    <t>Cristina</t>
+  </si>
+  <si>
+    <t>Pîrgaru</t>
+  </si>
+  <si>
+    <t>Mihaela</t>
+  </si>
+  <si>
+    <t>Ștefan</t>
+  </si>
+  <si>
+    <t>Vultur</t>
+  </si>
+  <si>
+    <t>Luminița</t>
+  </si>
+  <si>
+    <t>Oprea</t>
+  </si>
+  <si>
+    <t>Gabriela-Mihaela</t>
+  </si>
+  <si>
+    <t>Blumenfeld</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1035,11 +1065,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1049,9 +1079,10 @@
     <col min="3" max="3" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1065,194 +1096,230 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
       </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="B3" t="s">
         <v>9</v>
       </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
         <v>13</v>
       </c>
-      <c r="E3" t="s">
-        <v>12</v>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
         <v>15</v>
       </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="E5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>17</v>
       </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
         <v>21</v>
       </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" t="s">
-        <v>20</v>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" t="s">
+        <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="B8" t="s">
         <v>24</v>
       </c>
-      <c r="E6" t="s">
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
         <v>25</v>
       </c>
+      <c r="E8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>26</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B9" t="s">
         <v>27</v>
       </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
         <v>28</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
         <v>35</v>
-      </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" t="s">
-        <v>47</v>
       </c>
       <c r="E10" t="s">
         <v>46</v>
       </c>
+      <c r="F10" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>56</v>
+      </c>
+      <c r="F11" t="s">
+        <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>58</v>
+      </c>
+      <c r="F12" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
